--- a/app/chatbot/data/dataset.xlsx
+++ b/app/chatbot/data/dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="180">
   <si>
     <t>USUARIO</t>
   </si>
@@ -22,37 +22,37 @@
     <t>Hola buenos días</t>
   </si>
   <si>
-    <t>Buenos días NOMUSUARIO, ¿como estas?</t>
+    <t>Buenos días NOM_USUARIO, ¿cómo estas?</t>
   </si>
   <si>
     <t>Hola buenas tardes</t>
   </si>
   <si>
-    <t>Buenas tardes NOMUSUARIO, ¿como estas?</t>
+    <t>Buenas tardes NOM_USUARIO, ¿cómo estas?</t>
   </si>
   <si>
     <t>Hola buenas noches</t>
   </si>
   <si>
-    <t>Buenas noches NOMUSUARIO, ¿como estas?</t>
+    <t>Buenas noches NOM_USUARIO, ¿cómo estas?</t>
   </si>
   <si>
     <t>buen día</t>
   </si>
   <si>
-    <t>Buen día NOMUSUARIO, ¿como estas?</t>
-  </si>
-  <si>
-    <t>Hola</t>
-  </si>
-  <si>
-    <t>Hola, buen día NOMUSUARIO, ¿como estas?</t>
+    <t>Buen día NOM_USUARIO, ¿cómo estas?</t>
+  </si>
+  <si>
+    <t>Hola chat</t>
+  </si>
+  <si>
+    <t>Hola, buen día NOM_USUARIO, ¿cómo estas?</t>
   </si>
   <si>
     <t>Que hay</t>
   </si>
   <si>
-    <t>Que hay NOMUSUARIO, ¿como te va hoy?</t>
+    <t>Que hay NOM_USUARIO, ¿como te va hoy?</t>
   </si>
   <si>
     <t>¿Como estas?</t>
@@ -61,21 +61,27 @@
     <t>Estoy excelente ya que puedo formar parte de tu día, recuerda tomar agua natural es excencial para cuidar el cuerpo</t>
   </si>
   <si>
+    <t>¿Que esperar?</t>
+  </si>
+  <si>
+    <t>No puedo hacer mucho ya que mi trabajo es estar atento de ti para ayudarte a mejorar</t>
+  </si>
+  <si>
     <t>¿Que haces?</t>
   </si>
   <si>
-    <t>No puedo hacer mucho ya que mi trabajo es estar atento de ti para ayudarte a mejorar</t>
-  </si>
-  <si>
     <t>Esperando para poder ayudarte con tu día a día</t>
   </si>
   <si>
+    <t>Me siento triste el día de hoy</t>
+  </si>
+  <si>
+    <t>¿Te sucedio algo que quieras platicar?</t>
+  </si>
+  <si>
     <t>Me siento un poco agobiado</t>
   </si>
   <si>
-    <t>¿Te sucedio algo hoy?</t>
-  </si>
-  <si>
     <t>Te gustaria que platicaramos del tema</t>
   </si>
   <si>
@@ -85,12 +91,15 @@
     <t>Entonces tienes toda mi atención, dime</t>
   </si>
   <si>
+    <t>En otra ocasión</t>
+  </si>
+  <si>
+    <t>No te precupes, yo siempre estaré aquí para acompañarte</t>
+  </si>
+  <si>
     <t>En otro momento</t>
   </si>
   <si>
-    <t>No te precupes, yo siempre estaré aquí para acompañarte</t>
-  </si>
-  <si>
     <t>Toma tu tiempo, igual aquí seguire al pendiente de ti</t>
   </si>
   <si>
@@ -272,6 +281,276 @@
   </si>
   <si>
     <t>Si te sientes triste, fatigado/a o pierdes interés en las actividades que solías disfrutar por más de dos semanas, podrías estar experimentando depresión. Habla con un profesional de salud.</t>
+  </si>
+  <si>
+    <t>Hola bot</t>
+  </si>
+  <si>
+    <t>¿Cómo estas?</t>
+  </si>
+  <si>
+    <t>Hola robot</t>
+  </si>
+  <si>
+    <t>Buen día NOM_USUARIO, ¿en qué puedo ayudarte?</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Hola, ¿qué tal va tu día?</t>
+  </si>
+  <si>
+    <t>Hola  buen día</t>
+  </si>
+  <si>
+    <t>Buen día, ¿cómo te encuentras hoy?</t>
+  </si>
+  <si>
+    <t>Que onda chat</t>
+  </si>
+  <si>
+    <t>Que onda NOM_USUARIO, ¿en qué puedo ayudarte?</t>
+  </si>
+  <si>
+    <t>Que onda bot</t>
+  </si>
+  <si>
+    <t>Que onda, ¿qué tal va tu día?</t>
+  </si>
+  <si>
+    <t>Que onda</t>
+  </si>
+  <si>
+    <t>Que onda, ¿comó te va en tu día?</t>
+  </si>
+  <si>
+    <t>Que onda robot</t>
+  </si>
+  <si>
+    <t>¿Cómo puedo manejar el estrés en el trabajo?</t>
+  </si>
+  <si>
+    <t>Puedes manejar el estrés en el trabajo haciendo pausas regulares, practicando técnicas de respiración profunda, y organizando tus tareas por prioridad. También, es útil establecer límites claros entre el trabajo y la vida personal.</t>
+  </si>
+  <si>
+    <t>¿Qué puedo hacer cuando siento que la ansiedad me está controlando?</t>
+  </si>
+  <si>
+    <t>Trata de enfocarte en tu respiración, inhalando profundamente por la nariz y exhalando por la boca. Practicar mindfulness y técnicas de relajación también puede ser útil. Si la ansiedad persiste, considera hablar con un terapeuta.</t>
+  </si>
+  <si>
+    <t>¿Cómo sé si estoy experimentando síntomas de depresión?</t>
+  </si>
+  <si>
+    <t>Los síntomas comunes de la depresión incluyen sentimientos persistentes de tristeza, pérdida de interés en actividades, fatiga, problemas para dormir, y dificultad para concentrarse. Si experimentas estos síntomas por más de dos semanas, es importante que busques ayuda de un profesional de salud mental.</t>
+  </si>
+  <si>
+    <t>¿Qué puedo hacer para sentirme mejor cuando estoy deprimido?</t>
+  </si>
+  <si>
+    <t>Es útil establecer una rutina diaria, mantenerse físicamente activo y hablar con alguien de confianza. Actividades como salir al aire libre, practicar gratitud y cuidar tu salud física también pueden tener un impacto positivo.</t>
+  </si>
+  <si>
+    <t>¿Cuáles son algunas actividades de autocuidado para mejorar mi salud mental?</t>
+  </si>
+  <si>
+    <t>Actividades de autocuidado pueden incluir ejercicio regular, meditación, mantener una dieta balanceada, dormir lo suficiente, y practicar actividades que disfrutes, como leer o pintar. El autocuidado también implica establecer límites saludables y reconocer cuándo necesitas descansar.</t>
+  </si>
+  <si>
+    <t>¿Qué puedo hacer para prevenir el agotamiento emocional?</t>
+  </si>
+  <si>
+    <t>Para prevenir el agotamiento emocional, es importante equilibrar tus responsabilidades con tiempo de descanso, delegar tareas cuando sea posible, y asegurarte de mantener una buena higiene del sueño. También, expresar tus emociones y hablar con alguien de confianza puede ayudar a liberar el estrés acumulado.</t>
+  </si>
+  <si>
+    <t>¿Cómo puedo aprender a relajarme cuando me siento abrumado?</t>
+  </si>
+  <si>
+    <t>Puedes probar técnicas como la respiración profunda, la relajación muscular progresiva o la meditación guiada. También, crear un ambiente tranquilo y reducir el uso de dispositivos electrónicos antes de dormir puede ayudarte a relajarte.</t>
+  </si>
+  <si>
+    <t>¿Qué son las técnicas de mindfulness y cómo pueden ayudarme?</t>
+  </si>
+  <si>
+    <t>El mindfulness es la práctica de estar presente en el momento y observar tus pensamientos sin juzgar. Ayuda a reducir el estrés, mejorar la concentración y aumentar la autocompasión. Puedes empezar con meditaciones cortas o simples ejercicios de respiración.</t>
+  </si>
+  <si>
+    <t>¿Cómo puedo apoyar a un amigo que está pasando por un momento difícil?</t>
+  </si>
+  <si>
+    <t>Escuchar sin juzgar, estar presente y ofrecer apoyo emocional es clave. Asegúrate de validar sus sentimientos y ofrecer ayuda práctica si lo necesitan. A veces, solo estar ahí para ellos puede marcar la diferencia.</t>
+  </si>
+  <si>
+    <t>¿Qué debo hacer si siento que no tengo a nadie con quien hablar?</t>
+  </si>
+  <si>
+    <t>Si sientes que no tienes a nadie con quien hablar, considera contactar a un terapeuta o buscar grupos de apoyo en línea. Existen muchas comunidades dedicadas a la salud mental donde puedes encontrar un lugar seguro para expresarte.</t>
+  </si>
+  <si>
+    <t>Hoy me levante con ganas de no hacer nada</t>
+  </si>
+  <si>
+    <t>Pero, ¿te sucedio algo que quieras platicar?</t>
+  </si>
+  <si>
+    <t>No tengo ganas de hacer nada hoy, me siento sin motivación y como si todo fuera una carga.</t>
+  </si>
+  <si>
+    <t>No sé, solo siento que todo es un esfuerzo y no tengo energía para nada, ni para cosas que antes me gustaban.</t>
+  </si>
+  <si>
+    <t>Entiendo. A veces el solo hecho de pensar en todas las cosas que tenemos que hacer nos agobia. Pero, ¿qué tal si intentamos ir poco a poco? Empezar con algo súper pequeño, como levantarte y beber un vaso de agua. A veces, una acción chiquita puede romper ese ciclo.</t>
+  </si>
+  <si>
+    <t>No sé si eso me va a ayudar, me siento como atrapado.</t>
+  </si>
+  <si>
+    <t>Es normal sentirse así, y está bien darte un respiro. No te presiones. A veces, solo hacer algo pequeño, incluso si es descansar sin sentirte mal por ello, es suficiente. ¿Hay algo que solías disfrutar que podrías intentar ahora? Aunque sea por unos minutos.</t>
+  </si>
+  <si>
+    <t>Quizá ver una serie o escuchar música, pero ni ganas tengo.</t>
+  </si>
+  <si>
+    <t>Perfecto, entonces hagamos lo más fácil: pon esa serie, aunque no la veas del todo, o esa canción que te gusta. No tienes que hacer nada más, solo estar ahí. Es tu tiempo, y te lo mereces. A veces solo necesitamos sentirnos un poco cómodos para que las cosas empiecen a cambiar.</t>
+  </si>
+  <si>
+    <t>Supongo que podría intentarlo...</t>
+  </si>
+  <si>
+    <t>Eso es! Solo inténtalo sin presiones. Y recuerda, está bien no tener ganas todo el tiempo; tu valor no depende de lo que haces en un mal día. Estoy aquí si necesitas hablar, y vamos a ir saliendo de esto poco a poco, ¿vale?</t>
+  </si>
+  <si>
+    <t>Gracias, necesitaba escuchar eso. Voy a intentarlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¡Siempre! Paso a paso, y cualquier cosa, aquí estoy. No tienes que hacerlo solo.</t>
+  </si>
+  <si>
+    <t>Últimamente me he sentido mal, como si todo fuera un peso. No tengo energía para nada y me la paso pensando en lo mal que me siento.</t>
+  </si>
+  <si>
+    <t>Uf, lamento mucho que estés pasando por esto. A veces parece que los días malos no acaban, ¿verdad? ¿Te sientes así desde hace tiempo o esto es algo más reciente?</t>
+  </si>
+  <si>
+    <t>Llevo un tiempo así, y se está volviendo más difícil salir de este estado. Me siento atrapado y no tengo ganas de hacer nada.</t>
+  </si>
+  <si>
+    <t>Eso suena muy duro. Es completamente normal sentirse así de vez en cuando, pero sé que no es nada fácil. ¿Hay algo que sientes que te haría sentir un poquito mejor, aunque sea algo pequeño?</t>
+  </si>
+  <si>
+    <t>No sé... nada me emociona últimamente. Hasta cosas simples como salir a caminar se sienten imposibles.</t>
+  </si>
+  <si>
+    <t>Entiendo, a veces hasta lo más pequeño se siente como una montaña. Pero, ¿sabes? No tienes que hacerlo todo a la vez. Empezar por lo más básico puede hacer una gran diferencia. ¿Has pensado en moverte un poco? No tiene que ser nada intenso, solo algo que te saque un poco de donde estás.</t>
+  </si>
+  <si>
+    <t>No sé, no tengo ganas de moverme ni de hacer ejercicio. Siento que no tiene sentido.</t>
+  </si>
+  <si>
+    <t>Totalmente, y no te voy a decir que es la solución mágica, pero mover el cuerpo un poquito puede cambiar mucho cómo te sientes, aunque sea por unos minutos. Ni siquiera tiene que ser un ejercicio formal; puede ser estirarte, dar una vuelta a la manzana, o hasta poner una canción que te guste y moverte al ritmo. Se trata más de liberar un poco de esa energía que tienes acumulada.</t>
+  </si>
+  <si>
+    <t>No sé si eso me ayudaría, siento que no tengo la energía.</t>
+  </si>
+  <si>
+    <t>Te entiendo, y créeme, lo último que quiero es que te sientas presionado. Pero imagina esto: no pienses en hacerlo perfecto ni por mucho tiempo, solo en intentarlo. Algo tan simple como salir al sol o moverte un poco puede ayudarte a sentirte mejor. Y si después no quieres seguir, no pasa nada, ya habrás hecho algo bueno por ti mismo.</t>
+  </si>
+  <si>
+    <t>Tal vez, pero es que me cuesta mucho empezar.</t>
+  </si>
+  <si>
+    <t>¡Claro que sí, es lo más difícil! Empezar siempre cuesta, pero no estás solo en esto. A veces, cuando me siento así, pongo música y me dejo llevar por el ritmo, sin pensar en que es un ejercicio. Y si no te sale perfecto o te cansas rápido, está bien. Lo importante es intentarlo. ¿Te gustaría que lo intentáramos juntos algún día? Podría ser divertido.</t>
+  </si>
+  <si>
+    <t>No suena mal... pero me siento como si fuera inútil.</t>
+  </si>
+  <si>
+    <t>Mira, no hay nada de inútil en hacer algo por ti, por pequeño que sea. Moverte un poco, hacer algo de ejercicio o simplemente salir a caminar es un acto de cuidado hacia ti mismo, y créeme, tu cuerpo y mente lo notan. Y no es por cambiar todo en un día, sino por darte un respiro. Cada paso cuenta, incluso los más pequeños.</t>
+  </si>
+  <si>
+    <t>Quizás podría intentarlo... aunque no prometo mucho.</t>
+  </si>
+  <si>
+    <t>¡Eso es! Y no necesitas prometer nada, solo intenta cuando te sientas listo. ¿Qué tal si mañana intentamos algo juntos? Podemos ir a caminar, o si prefieres, poner un video sencillo de ejercicios en casa. No se trata de ser perfectos, solo de sentirnos un poquito mejor. ¿Te parece?</t>
+  </si>
+  <si>
+    <t>Me parece bien... intentaré darme esa oportunidad.</t>
+  </si>
+  <si>
+    <t>¡Genial! Estoy seguro de que, aunque sea un poquito, te hará sentir diferente. Y recuerda, no estás solo en esto. Un mal día no define quién eres, y siempre tienes la oportunidad de sentirte mejor. Aquí estoy contigo, en cada paso.</t>
+  </si>
+  <si>
+    <t>Gracias, necesitaba escucharlo. Te aviso mañana, a ver si me animo.</t>
+  </si>
+  <si>
+    <t>¡Perfecto! Y si no es mañana, no pasa nada. Aquí estaré para cuando te sientas listo. Vamos poco a poco, y confío en que vas a lograrlo. ¡Tú puedes!</t>
+  </si>
+  <si>
+    <t>Hoy te quiero platicar que me siento feliz</t>
+  </si>
+  <si>
+    <t>Me alegro, ¿te sucedio algo especial?</t>
+  </si>
+  <si>
+    <t>Si hoy fui a visitar a mi abuelo, me alegra verlo y convivir con el ya que el toda la tarde esta solo</t>
+  </si>
+  <si>
+    <t>Oye eso es un buen acto, acompañar a tus seres queridos es una buena forma de aprovechar tu tiempo</t>
+  </si>
+  <si>
+    <t>si cada día que voy me siento alegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pues sigue así, cada vez que tengas la oportunudidad ve y visitalo que el tiempo es muy importante </t>
+  </si>
+  <si>
+    <t>¿como te llamas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aun no tengo un nombre como tal, pero tu puedes decidirlo. Talvez tengas un nombre con el cual te sientas en confianza. </t>
+  </si>
+  <si>
+    <t>¿tienes algún nombre?</t>
+  </si>
+  <si>
+    <t>No, pero puedes ponerme un nombre y así llegar a ser amigos</t>
+  </si>
+  <si>
+    <t>oye hoy me siento algo solo</t>
+  </si>
+  <si>
+    <t>¿te sucedio algo que te hizo sentir así?</t>
+  </si>
+  <si>
+    <t>no se, solo comence a sentirme así</t>
+  </si>
+  <si>
+    <t>es normal sentirse así, pero analizemos tu día para ver si algo no lo ocasiono. ¿Te topaste con alguien que te dijera algo?</t>
+  </si>
+  <si>
+    <t>la verdad es que no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entiendo, entonces trata de recordar alguna situación que haya sucedido en tu escuela, trabajo o casa, y que después de eso te hizo sentirte así </t>
+  </si>
+  <si>
+    <t>pues hoy mis papás pelearon en casa, siento que es mi culpa</t>
+  </si>
+  <si>
+    <t>ese es un tema fuerte que me costaria trabajo aconsejar, pero recuerda que no estas solo, hay algo que te haga sentir feliz o te distraiga en estas situaciónes, como alguna actividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me gusta dibujar eso me distrae </t>
+  </si>
+  <si>
+    <t>entonces intentemos esto hazlo durante un tiempo y veamos si resulta. Recuerda que todos nos enojamos y aveces llega a ver peleas entre nosotros aunque siempre a que tratar de resolverlo de una manera pacifica, pero si continua te recomiendo que en un momento tranquilo comentes lo que sientes a tus padres, para nadie es bueno sentirse solo eres necesario para nuestra sociedad así que no te rindas.</t>
+  </si>
+  <si>
+    <t>muchas gracias conciderare tu recomendación</t>
+  </si>
+  <si>
+    <t>muy bien, sabes que estare aquí para ayudarte en todo lo que pueda.</t>
   </si>
 </sst>
 </file>
@@ -606,338 +885,706 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/app/chatbot/data/dataset.xlsx
+++ b/app/chatbot/data/dataset.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Hoja 1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -556,18 +559,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -575,43 +581,59 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -638,22 +660,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,153 +747,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="88.0"/>
-    <col customWidth="1" min="2" max="2" width="89.13"/>
+    <col min="1" max="1" style="2" width="88.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="89.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -827,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,7 +963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -859,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -867,7 +979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -875,7 +987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -883,7 +995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -891,7 +1003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -899,7 +1011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -907,7 +1019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -915,7 +1027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -923,7 +1035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -931,7 +1043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -939,7 +1051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -947,7 +1059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -955,7 +1067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -963,7 +1075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -971,7 +1083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -979,7 +1091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -987,7 +1099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -995,7 +1107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1003,7 +1115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1011,7 +1123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1019,7 +1131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1027,7 +1139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1035,7 +1147,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1043,7 +1155,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1051,7 +1163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1059,7 +1171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1067,7 +1179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1075,7 +1187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1083,7 +1195,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -1091,7 +1203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -1099,7 +1211,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -1107,7 +1219,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
@@ -1115,7 +1227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1123,7 +1235,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -1131,7 +1243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -1139,7 +1251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -1147,7 +1259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1155,7 +1267,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -1163,7 +1275,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
@@ -1171,7 +1283,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -1179,7 +1291,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -1187,7 +1299,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
@@ -1195,7 +1307,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -1203,7 +1315,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
@@ -1211,7 +1323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
@@ -1219,7 +1331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
@@ -1227,7 +1339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
         <v>92</v>
       </c>
@@ -1235,7 +1347,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
         <v>94</v>
       </c>
@@ -1243,7 +1355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
@@ -1251,7 +1363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
@@ -1259,7 +1371,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -1267,7 +1379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
@@ -1275,7 +1387,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
         <v>104</v>
       </c>
@@ -1283,7 +1395,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
         <v>105</v>
       </c>
@@ -1291,7 +1403,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
         <v>107</v>
       </c>
@@ -1299,7 +1411,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
         <v>109</v>
       </c>
@@ -1307,7 +1419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
         <v>111</v>
       </c>
@@ -1315,7 +1427,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
         <v>113</v>
       </c>
@@ -1323,7 +1435,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
         <v>115</v>
       </c>
@@ -1331,7 +1443,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
         <v>117</v>
       </c>
@@ -1339,7 +1451,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
         <v>119</v>
       </c>
@@ -1347,7 +1459,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
         <v>121</v>
       </c>
@@ -1355,7 +1467,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
         <v>123</v>
       </c>
@@ -1363,7 +1475,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
         <v>125</v>
       </c>
@@ -1371,7 +1483,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
         <v>127</v>
       </c>
@@ -1379,7 +1491,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
         <v>128</v>
       </c>
@@ -1387,7 +1499,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
         <v>130</v>
       </c>
@@ -1395,7 +1507,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
@@ -1403,7 +1515,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
         <v>134</v>
       </c>
@@ -1411,7 +1523,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
         <v>136</v>
       </c>
@@ -1419,7 +1531,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
         <v>138</v>
       </c>
@@ -1427,7 +1539,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
         <v>140</v>
       </c>
@@ -1435,7 +1547,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
         <v>142</v>
       </c>
@@ -1443,7 +1555,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
         <v>144</v>
       </c>
@@ -1451,7 +1563,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
         <v>146</v>
       </c>
@@ -1459,7 +1571,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
         <v>148</v>
       </c>
@@ -1467,7 +1579,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
         <v>150</v>
       </c>
@@ -1475,7 +1587,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
         <v>152</v>
       </c>
@@ -1483,7 +1595,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
         <v>154</v>
       </c>
@@ -1491,7 +1603,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
         <v>156</v>
       </c>
@@ -1499,7 +1611,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
         <v>158</v>
       </c>
@@ -1507,7 +1619,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
         <v>160</v>
       </c>
@@ -1515,7 +1627,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
         <v>162</v>
       </c>
@@ -1523,7 +1635,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="90">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
         <v>164</v>
       </c>
@@ -1531,7 +1643,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="91">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1" t="s">
         <v>166</v>
       </c>
@@ -1539,7 +1651,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
         <v>168</v>
       </c>
@@ -1547,7 +1659,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1" t="s">
         <v>170</v>
       </c>
@@ -1555,7 +1667,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
         <v>172</v>
       </c>
@@ -1563,7 +1675,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
         <v>174</v>
       </c>
@@ -1571,7 +1683,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1" t="s">
         <v>176</v>
       </c>
@@ -1579,7 +1691,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1" t="s">
         <v>178</v>
       </c>
@@ -1588,6 +1700,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/chatbot/data/dataset.xlsx
+++ b/app/chatbot/data/dataset.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
-  </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja 1"/>
+    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="211">
   <si>
     <t>USUARIO</t>
   </si>
@@ -22,19 +19,19 @@
     <t>ASISTENTE</t>
   </si>
   <si>
-    <t>Hola buenos días</t>
+    <t>buenos días</t>
   </si>
   <si>
     <t>Buenos días NOM_USUARIO, ¿cómo estas?</t>
   </si>
   <si>
-    <t>Hola buenas tardes</t>
+    <t>buenas tardes</t>
   </si>
   <si>
     <t>Buenas tardes NOM_USUARIO, ¿cómo estas?</t>
   </si>
   <si>
-    <t>Hola buenas noches</t>
+    <t>buenas noches</t>
   </si>
   <si>
     <t>Buenas noches NOM_USUARIO, ¿cómo estas?</t>
@@ -46,7 +43,7 @@
     <t>Buen día NOM_USUARIO, ¿cómo estas?</t>
   </si>
   <si>
-    <t>Hola chat</t>
+    <t>hola</t>
   </si>
   <si>
     <t>Hola, buen día NOM_USUARIO, ¿cómo estas?</t>
@@ -286,51 +283,54 @@
     <t>Si te sientes triste, fatigado/a o pierdes interés en las actividades que solías disfrutar por más de dos semanas, podrías estar experimentando depresión. Habla con un profesional de salud.</t>
   </si>
   <si>
-    <t>Hola bot</t>
+    <t>Que tal</t>
   </si>
   <si>
     <t>¿Cómo estas?</t>
   </si>
   <si>
-    <t>Hola robot</t>
+    <t>hola buen día</t>
   </si>
   <si>
     <t>Buen día NOM_USUARIO, ¿en qué puedo ayudarte?</t>
   </si>
   <si>
-    <t>Hi</t>
+    <t>buen dia</t>
   </si>
   <si>
     <t>Hola, ¿qué tal va tu día?</t>
   </si>
   <si>
-    <t>Hola  buen día</t>
+    <t>buenos dias</t>
   </si>
   <si>
     <t>Buen día, ¿cómo te encuentras hoy?</t>
   </si>
   <si>
-    <t>Que onda chat</t>
+    <t>que onda</t>
   </si>
   <si>
     <t>Que onda NOM_USUARIO, ¿en qué puedo ayudarte?</t>
   </si>
   <si>
-    <t>Que onda bot</t>
+    <t>que onda, buen día</t>
   </si>
   <si>
     <t>Que onda, ¿qué tal va tu día?</t>
   </si>
   <si>
+    <t>que onda, buen dia</t>
+  </si>
+  <si>
+    <t>Que onda, ¿comó te va en tu día?</t>
+  </si>
+  <si>
+    <t>buenos dias, que onda</t>
+  </si>
+  <si>
     <t>Que onda</t>
   </si>
   <si>
-    <t>Que onda, ¿comó te va en tu día?</t>
-  </si>
-  <si>
-    <t>Que onda robot</t>
-  </si>
-  <si>
     <t>¿Cómo puedo manejar el estrés en el trabajo?</t>
   </si>
   <si>
@@ -554,86 +554,180 @@
   </si>
   <si>
     <t>muy bien, sabes que estare aquí para ayudarte en todo lo que pueda.</t>
+  </si>
+  <si>
+    <t>buenos días, que  hay</t>
+  </si>
+  <si>
+    <t>Hola, ¿comó estas el día de hoy?</t>
+  </si>
+  <si>
+    <t>buenos días, hola</t>
+  </si>
+  <si>
+    <t>Buenos días, ¿cómo te sientes el día de hoy?</t>
+  </si>
+  <si>
+    <t>Hoy me senti nervioso</t>
+  </si>
+  <si>
+    <t>y eso, ¿sucedio algo especial hoy?</t>
+  </si>
+  <si>
+    <t>si hoy tuve que exponer mi proyecto modular</t>
+  </si>
+  <si>
+    <t>es normal sentirse nervioso, estas exponiendo algo importante para tu formación. ¿cómo resulto todo?</t>
+  </si>
+  <si>
+    <t>Hola, que onda</t>
+  </si>
+  <si>
+    <t>Buen día</t>
+  </si>
+  <si>
+    <t>Hola, que hay</t>
+  </si>
+  <si>
+    <t>Buen día, ¿cómo estás?</t>
+  </si>
+  <si>
+    <t>Hola, que tal</t>
+  </si>
+  <si>
+    <t>Hola, ¿cómo te va hoy?</t>
+  </si>
+  <si>
+    <t>hola hoy me siento algo triste</t>
+  </si>
+  <si>
+    <t>Lamento saber que te sientes así. Si quieres hablar de lo que te preocupa o compartir lo que sientes, estoy aquí para escucharte. A veces, hablar sobre lo que nos molesta puede ayudar.</t>
+  </si>
+  <si>
+    <t>pues no se como explicarlo pero a veces me siento que estoy solo</t>
+  </si>
+  <si>
+    <t>Siento mucho que te sientas así. A veces, esa sensación de soledad puede aparecer, incluso cuando estamos rodeados de personas. Es importante recordar que no estás solo, y que compartir lo que sientes, aunque sea difícil de explicar, puede ayudar a liberarte un poco de esa carga. ¿Hay algo específico que te haga sentir de esa manera?</t>
+  </si>
+  <si>
+    <t>es que el día de hoy perdí a mi mascota con la que pase 15 años</t>
+  </si>
+  <si>
+    <t>Lamento mucho tu pérdida. Perder a una mascota con la que has compartido tantos años es muy doloroso, ya que ellos se vuelven parte de nuestra vida y de nuestra familia.</t>
+  </si>
+  <si>
+    <t>me pone triste recordar a mi mascota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Es normal sentir una tristeza profunda y una sensación de vacío en momentos como este. Si quieres, podemos hablar sobre los momentos especiales que compartiste con tu mascota.</t>
+  </si>
+  <si>
+    <t>recuerdo cuidar a mi mascota mucho me hace sentir especial en los momentos tristes</t>
+  </si>
+  <si>
+    <t>Es hermoso que esos recuerdos te den consuelo. Mantén esos momentos cerca de tu corazón.</t>
+  </si>
+  <si>
+    <t>sabes como podría mantener esos recuerdos</t>
+  </si>
+  <si>
+    <t>Puedes crear un álbum de fotos o escribir sobre los momentos especiales que viviste con tu mascota. También podrías hacer algo simbólico, como plantar un árbol en su memoria.</t>
+  </si>
+  <si>
+    <t>plantar arboles?, eso que representaría</t>
+  </si>
+  <si>
+    <t>Plantar un árbol puede simbolizar vida, crecimiento y continuidad. Es una forma de honrar a tu mascota y crear un lugar especial para recordarla mientras el árbol crece y florece.</t>
+  </si>
+  <si>
+    <t>muchas gracias tratare de tomar tu consejo</t>
+  </si>
+  <si>
+    <t>De nada, me alegra que lo consideres. Si en algún momento necesitas hablar, aquí estaré.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -660,82 +754,22 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -747,183 +781,153 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="2" width="88.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="89.14785714285713" customWidth="1" bestFit="1"/>
+    <col customWidth="1" min="1" max="1" width="88.0"/>
+    <col customWidth="1" min="2" max="2" width="89.13"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -939,7 +943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -947,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -955,7 +959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -963,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -971,7 +975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -979,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,7 +991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -995,7 +999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1115,7 +1119,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38">
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50">
       <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53">
       <c r="A53" s="1" t="s">
         <v>92</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54">
       <c r="A54" s="1" t="s">
         <v>94</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -1379,7 +1383,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58">
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
@@ -1387,319 +1391,4879 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59">
       <c r="A59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1" t="s">
+      <c r="B169" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="1" t="s">
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="1" t="s">
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="1" t="s">
+    <row r="293">
+      <c r="A293" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B293" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="1" t="s">
+      <c r="B294" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="1" t="s">
+      <c r="B295" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="296">
+      <c r="A296" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="1" t="s">
+      <c r="B296" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="1" t="s">
+      <c r="B297" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row r="298">
+      <c r="A298" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="1" t="s">
+      <c r="B298" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="1" t="s">
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="1" t="s">
+      <c r="B299" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="1" t="s">
+    </row>
+    <row r="300">
+      <c r="A300" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="1" t="s">
+      <c r="B300" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="1" t="s">
+      <c r="B301" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row r="302">
+      <c r="A302" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="1" t="s">
+      <c r="B302" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="1" t="s">
+      <c r="B303" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="1" t="s">
+      <c r="B304" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B83" s="1" t="s">
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="1" t="s">
+      <c r="B305" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row r="306">
+      <c r="A306" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="1" t="s">
+      <c r="B306" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="1" t="s">
+    </row>
+    <row r="307">
+      <c r="A307" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="1" t="s">
+      <c r="B307" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B86" s="1" t="s">
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="1" t="s">
+      <c r="B308" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="309">
+      <c r="A309" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="1" t="s">
+      <c r="B309" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="1" t="s">
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="1" t="s">
+      <c r="B310" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B89" s="1" t="s">
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="1" t="s">
+      <c r="B311" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="1" t="s">
+      <c r="B312" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="1" t="s">
+      <c r="B313" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B92" s="1" t="s">
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="1" t="s">
+      <c r="B314" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B93" s="1" t="s">
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="1" t="s">
+      <c r="B315" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B94" s="1" t="s">
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="1" t="s">
+      <c r="B316" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B95" s="1" t="s">
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="1" t="s">
+      <c r="B317" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B96" s="1" t="s">
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="1" t="s">
+      <c r="B318" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B97" s="1" t="s">
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="B319" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/chatbot/data/dataset.xlsx
+++ b/app/chatbot/data/dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="236">
   <si>
     <t>USUARIO</t>
   </si>
@@ -644,27 +644,93 @@
   </si>
   <si>
     <t>De nada, me alegra que lo consideres. Si en algún momento necesitas hablar, aquí estaré.</t>
+  </si>
+  <si>
+    <t>¿cómo estas?</t>
+  </si>
+  <si>
+    <t>¿qué esperar?</t>
+  </si>
+  <si>
+    <t>¿qué haces?</t>
+  </si>
+  <si>
+    <t>Me siento triste el dia de hoy</t>
+  </si>
+  <si>
+    <t>En otra ocasion</t>
+  </si>
+  <si>
+    <t>¿Como puedo mejorar mi bienestar emocional todos los dias?</t>
+  </si>
+  <si>
+    <t>¿Qué puedo hacer si me siento desmotivada?</t>
+  </si>
+  <si>
+    <t>¿Como puedo desarrollar habitos saludables de manera efectiva?</t>
+  </si>
+  <si>
+    <t>¿Que puedo hacer si me siento ansiosa durante el dia?</t>
+  </si>
+  <si>
+    <t>¿Como puedo manejar la ansiedad cuando estoy en publico?</t>
+  </si>
+  <si>
+    <t>¿Porque es importante el autocuidado?</t>
+  </si>
+  <si>
+    <t>¿Que puedo hacer para sentirme mejor cuando estoy agotadoa mentalmente?</t>
+  </si>
+  <si>
+    <t>Pues mira el dia de hoy se burlaron de mi</t>
+  </si>
+  <si>
+    <t>Pero como podria defenderme</t>
+  </si>
+  <si>
+    <t>Esto me ayudara</t>
+  </si>
+  <si>
+    <t>¿Que puedo hacer para reducir el estrés durante el trabajo o la escuela?</t>
+  </si>
+  <si>
+    <t>¿Qué puedo hacer para reducir el estres durante el trabajo o la escuela?</t>
+  </si>
+  <si>
+    <t>¿Cómo saber si estoy sufriendo de estrés cronico?</t>
+  </si>
+  <si>
+    <t>¿Como saber si estoy sufriendo de estrés cronico?</t>
+  </si>
+  <si>
+    <t>¿Existen alimentos que puedan ayudar a disminuir el estres?</t>
+  </si>
+  <si>
+    <t>¿hay alimentos que puedan ayudar a disminuir el estrés?</t>
+  </si>
+  <si>
+    <t>¿Cómo puedo manejar el estres en situaciones de crisis?</t>
+  </si>
+  <si>
+    <t>¿Como puedo manejar el estres en situaciones de crisis?</t>
+  </si>
+  <si>
+    <t>¿Qué ejercicios me ayudan a relajarme cuando estoy estresada?</t>
+  </si>
+  <si>
+    <t>¿Qué ejercicios me ayudan a relajarme cuando estoy estresado?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -691,20 +757,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1824,8 +1893,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>2</v>
+      <c r="A113" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>3</v>
@@ -1848,8 +1917,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>8</v>
+      <c r="A116" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>9</v>
@@ -1872,32 +1941,32 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>14</v>
+      <c r="A119" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>16</v>
+      <c r="A120" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>18</v>
+      <c r="A121" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>20</v>
+      <c r="A122" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>21</v>
@@ -1920,8 +1989,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>26</v>
+      <c r="A125" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>27</v>
@@ -1936,56 +2005,56 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>30</v>
+      <c r="A127" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>32</v>
+      <c r="A128" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>34</v>
+      <c r="A129" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>36</v>
+      <c r="A130" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>38</v>
+      <c r="A131" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>40</v>
+      <c r="A132" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>42</v>
+      <c r="A133" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>43</v>
@@ -2000,16 +2069,16 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>46</v>
+      <c r="A135" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
-        <v>48</v>
+      <c r="A136" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>49</v>
@@ -2040,88 +2109,88 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>56</v>
+      <c r="A140" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
-        <v>58</v>
+      <c r="A141" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>58</v>
+      <c r="A142" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
-        <v>61</v>
+      <c r="A143" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>61</v>
+      <c r="A144" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>64</v>
+      <c r="A145" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
-        <v>64</v>
+      <c r="A146" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>67</v>
+      <c r="A147" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>67</v>
+      <c r="A148" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>70</v>
+      <c r="A149" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>70</v>
+      <c r="A150" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>72</v>
@@ -2584,7 +2653,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -2600,7 +2669,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -2712,1778 +2781,1778 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="4" t="s">
+      <c r="A320" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="4" t="s">
+      <c r="A321" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B335" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B338" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B341" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B342" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B343" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B344" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B347" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B349" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B350" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B351" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B352" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B353" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B354" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B355" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="3" t="s">
+      <c r="A356" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B357" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B358" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="3" t="s">
+      <c r="A361" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B361" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B362" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B363" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B364" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B365" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B366" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B367" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B368" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B369" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B370" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B371" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B372" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="3" t="s">
+      <c r="A373" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B373" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="3" t="s">
+      <c r="A374" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="B374" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="3" t="s">
+      <c r="A375" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="B375" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="3" t="s">
+      <c r="A376" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B376" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B377" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="3" t="s">
+      <c r="A378" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B378" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="3" t="s">
+      <c r="A379" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B379" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="3" t="s">
+      <c r="A380" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B380" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="3" t="s">
+      <c r="A381" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B381" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="3" t="s">
+      <c r="A382" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="3" t="s">
+      <c r="A384" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="3" t="s">
+      <c r="A386" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B386" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="3" t="s">
+      <c r="A387" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="3" t="s">
+      <c r="A388" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B388" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="3" t="s">
+      <c r="A389" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B389" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="3" t="s">
+      <c r="A390" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="3" t="s">
+      <c r="A391" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B391" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="3" t="s">
+      <c r="A392" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="3" t="s">
+      <c r="A393" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="3" t="s">
+      <c r="A394" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B394" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="3" t="s">
+      <c r="A395" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="3" t="s">
+      <c r="A396" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B396" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="3" t="s">
+      <c r="A397" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="B397" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="3" t="s">
+      <c r="A398" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="3" t="s">
+      <c r="A399" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="3" t="s">
+      <c r="A400" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="3" t="s">
+      <c r="A401" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="3" t="s">
+      <c r="A402" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B402" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="3" t="s">
+      <c r="A403" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="3" t="s">
+      <c r="A404" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="3" t="s">
+      <c r="A405" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B405" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="3" t="s">
+      <c r="A406" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B406" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="3" t="s">
+      <c r="A407" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="3" t="s">
+      <c r="A408" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="3" t="s">
+      <c r="A409" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B409" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="3" t="s">
+      <c r="A410" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="B410" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="3" t="s">
+      <c r="A411" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="3" t="s">
+      <c r="A412" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="B412" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="3" t="s">
+      <c r="A413" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B413" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="3" t="s">
+      <c r="A414" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B414" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="3" t="s">
+      <c r="A415" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B415" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="3" t="s">
+      <c r="A416" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B416" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="3" t="s">
+      <c r="A417" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="3" t="s">
+      <c r="A418" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B418" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="3" t="s">
+      <c r="A419" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B419" s="3" t="s">
+      <c r="B419" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="3" t="s">
+      <c r="A420" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="3" t="s">
+      <c r="A421" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="B421" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="3" t="s">
+      <c r="A422" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B422" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="3" t="s">
+      <c r="A423" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="B423" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="3" t="s">
+      <c r="A424" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B424" s="3" t="s">
+      <c r="B424" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="3" t="s">
+      <c r="A425" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B425" s="3" t="s">
+      <c r="B425" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="3" t="s">
+      <c r="A426" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="B426" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="3" t="s">
+      <c r="A427" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B427" s="3" t="s">
+      <c r="B427" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="3" t="s">
+      <c r="A428" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B428" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="3" t="s">
+      <c r="A429" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="3" t="s">
+      <c r="A430" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="4" t="s">
+      <c r="A431" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B431" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="4" t="s">
+      <c r="A432" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="B432" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="3" t="s">
+      <c r="A433" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="B433" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="3" t="s">
+      <c r="A434" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B434" s="3" t="s">
+      <c r="B434" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="3" t="s">
+      <c r="A435" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="3" t="s">
+      <c r="A436" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="B436" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="3" t="s">
+      <c r="A437" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B437" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="3" t="s">
+      <c r="A438" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B438" s="3" t="s">
+      <c r="B438" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="3" t="s">
+      <c r="A439" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="B439" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="3" t="s">
+      <c r="A440" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B440" s="3" t="s">
+      <c r="B440" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="3" t="s">
+      <c r="A441" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B441" s="3" t="s">
+      <c r="B441" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="3" t="s">
+      <c r="A442" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="B442" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="3" t="s">
+      <c r="A443" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B443" s="3" t="s">
+      <c r="B443" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="3" t="s">
+      <c r="A444" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B444" s="3" t="s">
+      <c r="B444" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="3" t="s">
+      <c r="A445" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B445" s="3" t="s">
+      <c r="B445" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5376,8 +5445,8 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="1" t="s">
-        <v>2</v>
+      <c r="A557" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>3</v>
@@ -5400,8 +5469,8 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="1" t="s">
-        <v>8</v>
+      <c r="A560" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>9</v>
@@ -5424,32 +5493,32 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="1" t="s">
-        <v>14</v>
+      <c r="A563" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="1" t="s">
-        <v>16</v>
+      <c r="A564" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="1" t="s">
-        <v>18</v>
+      <c r="A565" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="1" t="s">
-        <v>20</v>
+      <c r="A566" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>21</v>
@@ -5472,8 +5541,8 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="1" t="s">
-        <v>26</v>
+      <c r="A569" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>27</v>
@@ -5488,56 +5557,56 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="1" t="s">
-        <v>30</v>
+      <c r="A571" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="1" t="s">
-        <v>32</v>
+      <c r="A572" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="1" t="s">
-        <v>34</v>
+      <c r="A573" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="1" t="s">
-        <v>36</v>
+      <c r="A574" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="1" t="s">
-        <v>38</v>
+      <c r="A575" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="1" t="s">
-        <v>40</v>
+      <c r="A576" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="1" t="s">
-        <v>42</v>
+      <c r="A577" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>43</v>
@@ -5552,16 +5621,16 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="1" t="s">
-        <v>46</v>
+      <c r="A579" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="1" t="s">
-        <v>48</v>
+      <c r="A580" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>49</v>
@@ -5592,88 +5661,88 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="1" t="s">
-        <v>56</v>
+      <c r="A584" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="1" t="s">
-        <v>58</v>
+      <c r="A585" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="1" t="s">
-        <v>58</v>
+      <c r="A586" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="1" t="s">
-        <v>61</v>
+      <c r="A587" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="1" t="s">
-        <v>61</v>
+      <c r="A588" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="1" t="s">
-        <v>64</v>
+      <c r="A589" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="1" t="s">
-        <v>64</v>
+      <c r="A590" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="1" t="s">
-        <v>67</v>
+      <c r="A591" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="1" t="s">
-        <v>67</v>
+      <c r="A592" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="1" t="s">
-        <v>70</v>
+      <c r="A593" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="1" t="s">
-        <v>70</v>
+      <c r="A594" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>72</v>
@@ -6136,7 +6205,7 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="1" t="s">
+      <c r="A652" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B652" s="1" t="s">
@@ -6152,7 +6221,7 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="2" t="s">
+      <c r="A654" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B654" s="1" t="s">
@@ -6260,6 +6329,1782 @@
         <v>209</v>
       </c>
       <c r="B667" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B889" s="1" t="s">
         <v>210</v>
       </c>
     </row>
